--- a/data/获取数据/政策导向指标/非国企20年数据/301548.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301548.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>崇德科技</t>
   </si>
   <si>
-    <t>301548</t>
-  </si>
-  <si>
     <t>2023-09-20</t>
   </si>
   <si>
@@ -140,6 +164,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>周少华</t>
+  </si>
+  <si>
+    <t>周少华;湘潭德晟投资合伙企业(有限合伙);湘潭贝林投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -497,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,16 +579,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301548</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>80</v>
@@ -585,1069 +648,1098 @@
         <v>72.43000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301548</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3">
+        <v>3062</v>
+      </c>
+      <c r="S3">
+        <v>51.03</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3">
+        <v>63.4306566637429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301548</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>71.94</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>69.90000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>74.93000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>69.18000000000001</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>76379</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>546947190</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>7.21</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-12.38</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-9.880000000000001</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>53.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301548</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>68.01000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>68.26000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>69.38</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>66.88</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>50994</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>345550295</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>3.58</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-2.35</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-1.64</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>35.85</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301548</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>68.56999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>66</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>69.26000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>65.8</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>47925</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>322636826</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>5.07</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-3.31</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-2.26</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>33.7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>65.8</v>
-      </c>
-      <c r="E6">
-        <v>67.64</v>
-      </c>
-      <c r="F6">
-        <v>68.94</v>
-      </c>
-      <c r="G6">
-        <v>64.11</v>
-      </c>
-      <c r="H6">
-        <v>58571</v>
-      </c>
-      <c r="I6">
-        <v>389132821</v>
-      </c>
-      <c r="J6">
-        <v>7.32</v>
-      </c>
-      <c r="K6">
-        <v>2.48</v>
-      </c>
-      <c r="L6">
-        <v>1.64</v>
-      </c>
-      <c r="M6">
-        <v>41.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301548</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>65.8</v>
       </c>
       <c r="E7">
+        <v>67.64</v>
+      </c>
+      <c r="F7">
+        <v>68.94</v>
+      </c>
+      <c r="G7">
+        <v>64.11</v>
+      </c>
+      <c r="H7">
+        <v>58571</v>
+      </c>
+      <c r="I7">
+        <v>389132821</v>
+      </c>
+      <c r="J7">
+        <v>7.32</v>
+      </c>
+      <c r="K7">
+        <v>2.48</v>
+      </c>
+      <c r="L7">
+        <v>1.64</v>
+      </c>
+      <c r="M7">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301548</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>65.8</v>
+      </c>
+      <c r="E8">
         <v>65.33</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>69.98</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>64.64</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>51714</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>347069977</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>7.89</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-3.42</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-2.31</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>36.36</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301548</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>66.09</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>65.91</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>68</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>65.59999999999999</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>41708</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>277671476</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>3.67</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.89</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>0.58</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>29.33</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301548</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>65.69</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>63.64</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>65.69</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>63.64</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>31121</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>200329813</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>3.11</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-3.44</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-2.27</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>21.88</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301548</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>63.53</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>61.92</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>64.2</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>61.75</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>24085</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>151010678</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>3.85</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-2.7</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-1.72</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>16.93</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301548</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>61.88</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>62.18</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>62.48</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>61.17</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>16558</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>102526711</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>2.12</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.42</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.26</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>11.64</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301548</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>62.07</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>61.33</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>62.11</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>60</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>16713</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>102082888</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>3.39</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-1.37</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-0.85</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>11.75</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301548</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>61.01</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>60.5</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>61.69</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>60.28</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>15186</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>92387788</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>2.3</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-1.35</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-0.83</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>10.68</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301548</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>61.07</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>60.7</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>61.99</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>60.24</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>15084</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>91939035</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2.89</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.33</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.2</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>10.61</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301548</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>60.6</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>58.83</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>60.6</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>58.39</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>17087</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>100691676</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>3.64</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>-3.08</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>-1.87</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>12.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>58.44</v>
-      </c>
-      <c r="E16">
-        <v>57.63</v>
-      </c>
-      <c r="F16">
-        <v>58.8</v>
-      </c>
-      <c r="G16">
-        <v>57.57</v>
-      </c>
-      <c r="H16">
-        <v>12150</v>
-      </c>
-      <c r="I16">
-        <v>70384782</v>
-      </c>
-      <c r="J16">
-        <v>2.09</v>
-      </c>
-      <c r="K16">
-        <v>-2.04</v>
-      </c>
-      <c r="L16">
-        <v>-1.2</v>
-      </c>
-      <c r="M16">
-        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301548</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>57.1</v>
+        <v>58.44</v>
       </c>
       <c r="E17">
-        <v>58.51</v>
+        <v>57.63</v>
       </c>
       <c r="F17">
-        <v>59.68</v>
+        <v>58.8</v>
       </c>
       <c r="G17">
-        <v>57.1</v>
+        <v>57.57</v>
       </c>
       <c r="H17">
-        <v>15794</v>
+        <v>12150</v>
       </c>
       <c r="I17">
-        <v>92760291</v>
+        <v>70384782</v>
       </c>
       <c r="J17">
-        <v>4.48</v>
+        <v>2.09</v>
       </c>
       <c r="K17">
-        <v>1.53</v>
+        <v>-2.04</v>
       </c>
       <c r="L17">
-        <v>0.88</v>
+        <v>-1.2</v>
       </c>
       <c r="M17">
-        <v>11.11</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301548</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>59.1</v>
+        <v>57.1</v>
       </c>
       <c r="E18">
-        <v>59.26</v>
+        <v>58.51</v>
       </c>
       <c r="F18">
-        <v>60.9</v>
+        <v>59.68</v>
       </c>
       <c r="G18">
-        <v>58.5</v>
+        <v>57.1</v>
       </c>
       <c r="H18">
-        <v>18333</v>
+        <v>15794</v>
       </c>
       <c r="I18">
-        <v>109761617</v>
+        <v>92760291</v>
       </c>
       <c r="J18">
-        <v>4.1</v>
+        <v>4.48</v>
       </c>
       <c r="K18">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="L18">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="M18">
-        <v>12.89</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301548</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>59.34</v>
+        <v>59.1</v>
       </c>
       <c r="E19">
-        <v>56.02</v>
+        <v>59.26</v>
       </c>
       <c r="F19">
-        <v>59.34</v>
+        <v>60.9</v>
       </c>
       <c r="G19">
-        <v>55.79</v>
+        <v>58.5</v>
       </c>
       <c r="H19">
-        <v>16211</v>
+        <v>18333</v>
       </c>
       <c r="I19">
-        <v>92201149</v>
+        <v>109761617</v>
       </c>
       <c r="J19">
-        <v>5.99</v>
+        <v>4.1</v>
       </c>
       <c r="K19">
-        <v>-5.47</v>
+        <v>1.28</v>
       </c>
       <c r="L19">
-        <v>-3.24</v>
+        <v>0.75</v>
       </c>
       <c r="M19">
-        <v>11.4</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301548</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>55.74</v>
+        <v>59.34</v>
       </c>
       <c r="E20">
-        <v>58.69</v>
+        <v>56.02</v>
       </c>
       <c r="F20">
-        <v>58.78</v>
+        <v>59.34</v>
       </c>
       <c r="G20">
-        <v>55.74</v>
+        <v>55.79</v>
       </c>
       <c r="H20">
-        <v>14623</v>
+        <v>16211</v>
       </c>
       <c r="I20">
-        <v>84404724</v>
+        <v>92201149</v>
       </c>
       <c r="J20">
-        <v>5.43</v>
+        <v>5.99</v>
       </c>
       <c r="K20">
-        <v>4.77</v>
+        <v>-5.47</v>
       </c>
       <c r="L20">
-        <v>2.67</v>
+        <v>-3.24</v>
       </c>
       <c r="M20">
-        <v>10.28</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301548</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>58.5</v>
+        <v>55.74</v>
       </c>
       <c r="E21">
-        <v>59.43</v>
+        <v>58.69</v>
       </c>
       <c r="F21">
-        <v>60.32</v>
+        <v>58.78</v>
       </c>
       <c r="G21">
-        <v>58.15</v>
+        <v>55.74</v>
       </c>
       <c r="H21">
-        <v>14494</v>
+        <v>14623</v>
       </c>
       <c r="I21">
-        <v>85791640</v>
+        <v>84404724</v>
       </c>
       <c r="J21">
-        <v>3.7</v>
+        <v>5.43</v>
       </c>
       <c r="K21">
-        <v>1.26</v>
+        <v>4.77</v>
       </c>
       <c r="L21">
-        <v>0.74</v>
+        <v>2.67</v>
       </c>
       <c r="M21">
-        <v>10.19</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301548</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>58.94</v>
+        <v>58.5</v>
       </c>
       <c r="E22">
-        <v>60.1</v>
+        <v>59.43</v>
       </c>
       <c r="F22">
-        <v>60.95</v>
+        <v>60.32</v>
       </c>
       <c r="G22">
-        <v>58.32</v>
+        <v>58.15</v>
       </c>
       <c r="H22">
-        <v>15554</v>
+        <v>14494</v>
       </c>
       <c r="I22">
-        <v>92728135</v>
+        <v>85791640</v>
       </c>
       <c r="J22">
-        <v>4.43</v>
+        <v>3.7</v>
       </c>
       <c r="K22">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="L22">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="M22">
-        <v>10.94</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301548</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>59.81</v>
+        <v>58.94</v>
       </c>
       <c r="E23">
-        <v>61.06</v>
+        <v>60.1</v>
       </c>
       <c r="F23">
-        <v>61.48</v>
+        <v>60.95</v>
       </c>
       <c r="G23">
-        <v>59.51</v>
+        <v>58.32</v>
       </c>
       <c r="H23">
-        <v>15703</v>
+        <v>15554</v>
       </c>
       <c r="I23">
-        <v>95505957</v>
+        <v>92728135</v>
       </c>
       <c r="J23">
-        <v>3.28</v>
+        <v>4.43</v>
       </c>
       <c r="K23">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="L23">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="M23">
-        <v>11.04</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301548</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>60.52</v>
+        <v>59.81</v>
       </c>
       <c r="E24">
-        <v>60.68</v>
+        <v>61.06</v>
       </c>
       <c r="F24">
-        <v>61.36</v>
+        <v>61.48</v>
       </c>
       <c r="G24">
-        <v>59.67</v>
+        <v>59.51</v>
       </c>
       <c r="H24">
-        <v>12045</v>
+        <v>15703</v>
       </c>
       <c r="I24">
-        <v>73038075</v>
+        <v>95505957</v>
       </c>
       <c r="J24">
-        <v>2.77</v>
+        <v>3.28</v>
       </c>
       <c r="K24">
-        <v>-0.62</v>
+        <v>1.6</v>
       </c>
       <c r="L24">
-        <v>-0.38</v>
+        <v>0.96</v>
       </c>
       <c r="M24">
-        <v>8.470000000000001</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301548</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>60.86</v>
+        <v>60.52</v>
       </c>
       <c r="E25">
-        <v>59.85</v>
+        <v>60.68</v>
       </c>
       <c r="F25">
-        <v>61.2</v>
+        <v>61.36</v>
       </c>
       <c r="G25">
-        <v>59.25</v>
+        <v>59.67</v>
       </c>
       <c r="H25">
-        <v>10459</v>
+        <v>12045</v>
       </c>
       <c r="I25">
-        <v>62764295</v>
+        <v>73038075</v>
       </c>
       <c r="J25">
-        <v>3.21</v>
+        <v>2.77</v>
       </c>
       <c r="K25">
-        <v>-1.37</v>
+        <v>-0.62</v>
       </c>
       <c r="L25">
-        <v>-0.83</v>
+        <v>-0.38</v>
       </c>
       <c r="M25">
-        <v>7.35</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301548</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>59.41</v>
+        <v>60.86</v>
       </c>
       <c r="E26">
-        <v>63.5</v>
+        <v>59.85</v>
       </c>
       <c r="F26">
-        <v>64.04000000000001</v>
+        <v>61.2</v>
       </c>
       <c r="G26">
-        <v>59.41</v>
+        <v>59.25</v>
       </c>
       <c r="H26">
-        <v>24840</v>
+        <v>10459</v>
       </c>
       <c r="I26">
-        <v>154892078</v>
+        <v>62764295</v>
       </c>
       <c r="J26">
-        <v>7.74</v>
+        <v>3.21</v>
       </c>
       <c r="K26">
-        <v>6.1</v>
+        <v>-1.37</v>
       </c>
       <c r="L26">
-        <v>3.65</v>
+        <v>-0.83</v>
       </c>
       <c r="M26">
-        <v>17.47</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301548</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>62.9</v>
+        <v>59.41</v>
       </c>
       <c r="E27">
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="F27">
-        <v>64.2</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="G27">
-        <v>61.76</v>
+        <v>59.41</v>
       </c>
       <c r="H27">
-        <v>16793</v>
+        <v>24840</v>
       </c>
       <c r="I27">
-        <v>105605370</v>
+        <v>154892078</v>
       </c>
       <c r="J27">
-        <v>3.84</v>
+        <v>7.74</v>
       </c>
       <c r="K27">
-        <v>-0.79</v>
+        <v>6.1</v>
       </c>
       <c r="L27">
-        <v>-0.5</v>
+        <v>3.65</v>
       </c>
       <c r="M27">
-        <v>11.81</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301548</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
+        <v>62.9</v>
+      </c>
+      <c r="E28">
+        <v>63</v>
+      </c>
+      <c r="F28">
+        <v>64.2</v>
+      </c>
+      <c r="G28">
+        <v>61.76</v>
+      </c>
+      <c r="H28">
+        <v>16793</v>
+      </c>
+      <c r="I28">
+        <v>105605370</v>
+      </c>
+      <c r="J28">
+        <v>3.84</v>
+      </c>
+      <c r="K28">
+        <v>-0.79</v>
+      </c>
+      <c r="L28">
+        <v>-0.5</v>
+      </c>
+      <c r="M28">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301548</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
         <v>62.31</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>62.88</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>64.66</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>62.31</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>12913</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>81939723.19</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>3.73</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>-0.19</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>-0.12</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>9.08</v>
       </c>
     </row>
